--- a/medicine/Enfance/Gaël_Aymon/Gaël_Aymon.xlsx
+++ b/medicine/Enfance/Gaël_Aymon/Gaël_Aymon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ga%C3%ABl_Aymon</t>
+          <t>Gaël_Aymon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaël Aymon est un écrivain français, né à Paris le 12 décembre 1973. Il écrit des albums et des romans pour un public à partir de 5 ans jusqu’aux jeunes adultes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaël Aymon est un écrivain français, né à Paris le 12 décembre 1973. Il écrit des albums et des romans pour un public à partir de 5 ans jusqu’aux jeunes adultes,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ga%C3%ABl_Aymon</t>
+          <t>Gaël_Aymon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu du cours Florent et du Studio Pygmalion, d'abord comédien puis scénariste et réalisateur, Gaël Aymon a produit et distribué des films, spectacles et concerts, et enseigné le théâtre aux enfants et adolescents.
 Ses premiers ouvrages pour la jeunesse sont publiés à partir de 2010. Ses livres ont obtenu de nombreuses récompenses et ont été traduits en Chine, Corée, Roumanie, Italie, Espagne, Allemagne, au Brésil, au Mexique et en braille.
-Membre de Charte des auteurs et illustrateurs jeunesse, il en a été l'un des administrateurs[3] entre 2012 et 2014.
-En 2023 il publie le roman pour adolescents Une nuit de mon enfance. Pour l'avis critique de Télérama : « Ce n’est pas la première fois que cet auteur s’essaye au thriller. Il en explore ici une veine réaliste en y mêlant subtilement son appétence pour le conte. Le romancier réussit parfaitement cette partition délicate. »[4]
-En 2023[5] et en 2024[6], il est sélectionné pour le prestigieux prix suédois international, le Prix commémoratif Astrid-Lindgren, le "Nobel de la littérature jeunesse", pour l'ensemble de son œuvre.
+Membre de Charte des auteurs et illustrateurs jeunesse, il en a été l'un des administrateurs entre 2012 et 2014.
+En 2023 il publie le roman pour adolescents Une nuit de mon enfance. Pour l'avis critique de Télérama : « Ce n’est pas la première fois que cet auteur s’essaye au thriller. Il en explore ici une veine réaliste en y mêlant subtilement son appétence pour le conte. Le romancier réussit parfaitement cette partition délicate. »
+En 2023 et en 2024, il est sélectionné pour le prestigieux prix suédois international, le Prix commémoratif Astrid-Lindgren, le "Nobel de la littérature jeunesse", pour l'ensemble de son œuvre.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ga%C3%ABl_Aymon</t>
+          <t>Gaël_Aymon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans pour adolescents et jeunes adultes
-Ma réputation (Actes Sud Junior - Romans - 2013)
+          <t>Romans pour adolescents et jeunes adultes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ma réputation (Actes Sud Junior - Romans - 2013)
 Oublier Camille (Actes Sud Junior - Roman - 2014) -
 Les Héros oubliés - Tome 1 "Aux portes de l'oubli" (Actes Sud Junior - Roman - 2015)
 Les Héros oubliés - Tome 2 "Les Maîtres" (Actes Sud Junior - Roman - 2016)
@@ -560,10 +579,44 @@
 Silent Boy (Nathan, coll. Court Toujours - Roman - 2020)
 Grim, fils du marais (Nathan - Roman - 2021)
 L'Apprenti-conteur (L’École des Loisirs - 2022)
-Une nuit de mon enfance[4] (Nathan - Roman - 2023)
-17 ans à jamais (Nathan - Roman - 2024)
-Romans junior
-Une place dans la cour (Talents Hauts - Roman junior - 2011)
+Une nuit de mon enfance (Nathan - Roman - 2023)
+17 ans à jamais (Nathan - Roman - 2024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gaël_Aymon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ga%C3%ABl_Aymon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans junior</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une place dans la cour (Talents Hauts - Roman junior - 2011)
 L’Anniversaire à l'envers (Talents Hauts - Roman junior - 2012)
 Les Grandes Années, tome 1 : Le philtre d'amour (Nathan - Premiers Romans - 2017)
 Les Grandes Années, tome 2 : Le vide-grenier (Nathan - Premiers Romans - 2017)
@@ -573,9 +626,43 @@
 Les Grandes Années, tome 6 : Sauve la planète! (Nathan - Premiers Romans - 2019)
 Les Grandes Années, tome 7 : A l'aventure! (Nathan - Premiers Romans - 2019)
 Les Grandes Années, tome 8 : Morts-vivants! (Nathan - Premiers Romans - 2020)
-Mon deuxième cerveau (L’École des Loisirs - 2024)
-Contes
-Contes d'un autre genre (Talents Hauts - Album - 2011)
+Mon deuxième cerveau (L’École des Loisirs - 2024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gaël_Aymon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ga%C3%ABl_Aymon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Contes d'un autre genre (Talents Hauts - Album - 2011)
 Les Souliers écarlates (Talents Hauts - Album - 2012) - soutenu par Amnesty International
 Le Fils des géants (Talents Hauts - Album - 2013) - soutenu par Amnesty International
 Le Secret le plus fort du monde (Les éditions du Ricochet - Album - 2014)
@@ -584,84 +671,156 @@
 Contes d'un autre genre - Nouvelle édition - (Talents Hauts - Album - 2017) - soutenu par Amnesty International
 Blanche-Neige (Nathan - Album - 2018)
 La Belle et la Bête aux larmes de diamants (Gautier-Languereau - Album - 2019)
-La Belle au bois dormant (Nathan - Album - 2020)
-Albums junior
-La Princesse Rose-Praline (Talents Hauts - Album - 2010)
+La Belle au bois dormant (Nathan - Album - 2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gaël_Aymon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ga%C3%ABl_Aymon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums junior</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Princesse Rose-Praline (Talents Hauts - Album - 2010)
 Giga-Boy (Talents Hauts - Album - 2011)
 SOS petites sirènes, tome 1 : Le bal en plastique (Fleurus - 2021)
 SOS petites sirènes, tome 2 : La fête des fonds marins (Fleurus - 2021)
 SOS petites sirènes, tome 3 : Le lagon magique (Fleurus - 2021)
 SOS petites sirènes, tome 4 : Les héros de la nuit (Fleurus - 2021)
 SOS petites sirènes, tome 5 : Le palais de glace (Fleurus - 2022)
-Vraiment peur! (Nathan - Album - 2022)
-Parutions dans la presse
-La Sorcière aux pigeons (J'aime lire - Bayard Presse, 2012
+Vraiment peur! (Nathan - Album - 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gaël_Aymon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ga%C3%ABl_Aymon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Parutions dans la presse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Sorcière aux pigeons (J'aime lire - Bayard Presse, 2012
 Le Conte des trois flocons (Mes premiers J'aime Lire - Bayard Presse, 2013)
 Une colo pour deux (DLire - Bayard Presse, 2013}
 Le Secret de la bête (Revue Kong n°1 / 2015) – Muséum Aquarium de Nancy</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ga%C3%ABl_Aymon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gaël_Aymon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ga%C3%ABl_Aymon</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix littéraires et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Prix Jacaranda[7] 2016 pour Ma réputation
-Prix des Lecteurs en Seine 2022[8] pour Et ta vie m'appartiendra 
- Sélection pour le Prix commémoratif Astrid-Lindgren 2023[5] et 2024[6] pour l'ensemble de son œuvre.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ga%C3%ABl_Aymon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prix Jacaranda 2016 pour Ma réputation
+Prix des Lecteurs en Seine 2022 pour Et ta vie m'appartiendra 
+ Sélection pour le Prix commémoratif Astrid-Lindgren 2023 et 2024 pour l'ensemble de son œuvre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gaël_Aymon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ga%C3%ABl_Aymon</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Adaptations théâtrales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Perce-Neige et les trois ogresses a été adapté en 2014 par la Compagnie Spectabilis[9].
-La Belle éveillée a été adaptée en 2016 par la Compagnie Anne ma sœur Anne[10].</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Perce-Neige et les trois ogresses a été adapté en 2014 par la Compagnie Spectabilis.
+La Belle éveillée a été adaptée en 2016 par la Compagnie Anne ma sœur Anne.</t>
         </is>
       </c>
     </row>
